--- a/amplify/data/develop/local/editor_background_local_category.xlsx
+++ b/amplify/data/develop/local/editor_background_local_category.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>

--- a/amplify/data/develop/local/editor_background_local_category.xlsx
+++ b/amplify/data/develop/local/editor_background_local_category.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>

--- a/amplify/data/develop/local/editor_background_local_category.xlsx
+++ b/amplify/data/develop/local/editor_background_local_category.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
